--- a/Images_and_Data/Embedded_Qs/3_6_2nd_order.xlsx
+++ b/Images_and_Data/Embedded_Qs/3_6_2nd_order.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84EB488D-FA5F-482D-BAEF-05ADFCCBBE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA05D54-66A8-4467-9A17-20161CA9A2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10965" yWindow="1200" windowWidth="16665" windowHeight="13995" activeTab="1" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
+    <workbookView xWindow="10965" yWindow="1200" windowWidth="16665" windowHeight="13995" activeTab="4" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="6" r:id="rId1"/>
     <sheet name="1_" sheetId="7" r:id="rId2"/>
     <sheet name="2_" sheetId="8" r:id="rId3"/>
     <sheet name="3_" sheetId="9" r:id="rId4"/>
-    <sheet name="4_MultC" sheetId="1" r:id="rId5"/>
+    <sheet name="4_" sheetId="1" r:id="rId5"/>
     <sheet name="5_Quant" sheetId="3" r:id="rId6"/>
     <sheet name="6_MultAns" sheetId="4" r:id="rId7"/>
     <sheet name="7_Matching" sheetId="5" r:id="rId8"/>
@@ -43,19 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="62">
-  <si>
-    <t>What is the color of the car?</t>
-  </si>
-  <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
   <si>
     <t>Black</t>
   </si>
@@ -69,9 +57,6 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Obviously it's not red.</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -81,9 +66,6 @@
     <t>You're stupid.</t>
   </si>
   <si>
-    <t>So close. But not really that close.</t>
-  </si>
-  <si>
     <t>What is 40.1 times 3?</t>
   </si>
   <si>
@@ -229,6 +211,57 @@
   </si>
   <si>
     <t>I like this.  Maybe superman could do it by flying really fast around the earth.</t>
+  </si>
+  <si>
+    <t>Which of the following would likely to be larger on a minivan on the highway than on a 200 mph race car?</t>
+  </si>
+  <si>
+    <t>Fluid density</t>
+  </si>
+  <si>
+    <t>Velocity</t>
+  </si>
+  <si>
+    <t>Projected Frontal Area</t>
+  </si>
+  <si>
+    <t>Drag Coefficient</t>
+  </si>
+  <si>
+    <t>Higher on the minivan</t>
+  </si>
+  <si>
+    <t>Higher on the race car</t>
+  </si>
+  <si>
+    <t>Same for both</t>
+  </si>
+  <si>
+    <t>Would the drag force likely be higher on a minivan on the highway or a 200 mph race car?</t>
+  </si>
+  <si>
+    <t>Minivan</t>
+  </si>
+  <si>
+    <t>Race car</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the effect of the velocity squared term!   A vehicle going 3 times as fast would have a drag force that is 9 times larger.   The A and C_d would be smaller for the race car, but not enough to make up for the difference in velocity. </t>
+  </si>
+  <si>
+    <t>If two objects A and B have the same mass and same cross sectional area, but A falls at a higher terminal velocity, which has the larger coefficient of drag?</t>
+  </si>
+  <si>
+    <t>Object A</t>
+  </si>
+  <si>
+    <t>Object B</t>
+  </si>
+  <si>
+    <t>If it is falling faster, is it more streamlined or less?  What does that say about its C_d?</t>
+  </si>
+  <si>
+    <t>Yep! The less streamlined object (large C_d) falls slower.</t>
   </si>
 </sst>
 </file>
@@ -603,52 +636,52 @@
   <sheetData>
     <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -666,7 +699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57791D97-FA66-4511-9C06-60107C3234C0}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -681,52 +714,52 @@
   <sheetData>
     <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -736,10 +769,88 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2CD8C2B-D1A8-4D3F-8035-9BE809D05A5A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E1BC2E-64C7-4733-84BB-7AC79569B2D9}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,38 +861,45 @@
     <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E1BC2E-64C7-4733-84BB-7AC79569B2D9}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6C7967-0C46-4F3F-B2F4-DFA8B1F9707A}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,59 +910,37 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -871,13 +967,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -896,7 +992,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -904,7 +1000,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -912,7 +1008,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -938,68 +1034,68 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1012,7 +1108,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1026,75 +1122,75 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Images_and_Data/Embedded_Qs/3_6_2nd_order.xlsx
+++ b/Images_and_Data/Embedded_Qs/3_6_2nd_order.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AA05D54-66A8-4467-9A17-20161CA9A2CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DD9EE3-ECAF-4347-B3E6-956830D774C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10965" yWindow="1200" windowWidth="16665" windowHeight="13995" activeTab="4" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
+    <workbookView xWindow="10965" yWindow="1200" windowWidth="16665" windowHeight="13995" activeTab="6" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="6" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="2_" sheetId="8" r:id="rId3"/>
     <sheet name="3_" sheetId="9" r:id="rId4"/>
     <sheet name="4_" sheetId="1" r:id="rId5"/>
-    <sheet name="5_Quant" sheetId="3" r:id="rId6"/>
-    <sheet name="6_MultAns" sheetId="4" r:id="rId7"/>
+    <sheet name="5_" sheetId="3" r:id="rId6"/>
+    <sheet name="6_" sheetId="4" r:id="rId7"/>
     <sheet name="7_Matching" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -43,10 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
-  <si>
-    <t>Black</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="70">
   <si>
     <t>Correct</t>
   </si>
@@ -60,54 +57,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>You're brilliant!</t>
-  </si>
-  <si>
-    <t>You're stupid.</t>
-  </si>
-  <si>
-    <t>What is 40.1 times 3?</t>
-  </si>
-  <si>
-    <t>Leeway</t>
-  </si>
-  <si>
-    <t>Don't forget to include the density</t>
-  </si>
-  <si>
-    <t>You may have a problem with units</t>
-  </si>
-  <si>
-    <t>Did you add correctly, shithead?</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
-    <t>What is the best kind of bear?</t>
-  </si>
-  <si>
-    <t>Grizzly</t>
-  </si>
-  <si>
-    <t>Polar</t>
-  </si>
-  <si>
-    <t>Brown</t>
-  </si>
-  <si>
-    <t>Koala</t>
-  </si>
-  <si>
-    <t>It's not even a bear, dumbshit.</t>
-  </si>
-  <si>
-    <t>Obviously it's not the grizzly.</t>
-  </si>
-  <si>
-    <t>Battlestar Galactica.</t>
-  </si>
-  <si>
     <t>Terms</t>
   </si>
   <si>
@@ -262,6 +211,48 @@
   </si>
   <si>
     <t>Yep! The less streamlined object (large C_d) falls slower.</t>
+  </si>
+  <si>
+    <t>What assumption allowed us to find the coefficient of drag for the falling penny?</t>
+  </si>
+  <si>
+    <t>We assumed a value for gravitational acceleration</t>
+  </si>
+  <si>
+    <t>We assumed that the penny was not whirling while it fell</t>
+  </si>
+  <si>
+    <t>We assumed that the penny fell with its faces pointing up and down</t>
+  </si>
+  <si>
+    <t>We assumed a value for terminal velocity</t>
+  </si>
+  <si>
+    <t>This value we know pretty accurately.</t>
+  </si>
+  <si>
+    <t>We could make this assumption to find a C_d, but we didn't do that here</t>
+  </si>
+  <si>
+    <t>Yep!  Assuming v_term allowed us to solve for C_d.</t>
+  </si>
+  <si>
+    <t>The position plot is mostly linear.  But in the previous notebook (without drag), the position plot was parabolic.  What causes the difference?</t>
+  </si>
+  <si>
+    <t>When we include drag, velocity is constant for much of the fall</t>
+  </si>
+  <si>
+    <t>When we include drag, acceleration is constant for much of the fall</t>
+  </si>
+  <si>
+    <t>When we include drag, position is constant for much of the fall</t>
+  </si>
+  <si>
+    <t>Acceleration is constant when there is *no* drag (-9.8 m/s2)</t>
+  </si>
+  <si>
+    <t>Yep!  There is no acceleration once the penny reaches terminal velocity, so the velocity is constant.</t>
   </si>
 </sst>
 </file>
@@ -636,52 +627,52 @@
   <sheetData>
     <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -714,52 +705,52 @@
   <sheetData>
     <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -784,54 +775,54 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -864,29 +855,29 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -898,8 +889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A6C7967-0C46-4F3F-B2F4-DFA8B1F9707A}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,35 +903,35 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -950,65 +941,71 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E4A378-C52B-465E-833B-740E46756CFE}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="25.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="36.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="34.85546875" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>120.3</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
+      <c r="C5" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1018,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7D16AA-24F2-475C-807B-39CEEE6B996C}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,70 +1029,45 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1122,75 +1094,75 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Images_and_Data/Embedded_Qs/3_6_2nd_order.xlsx
+++ b/Images_and_Data/Embedded_Qs/3_6_2nd_order.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\My Drive\Colab Notebooks\ModSimPy_Directory\Images_and_Data\Embedded_Qs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4DD9EE3-ECAF-4347-B3E6-956830D774C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3B84AA-D5D7-4A24-912E-BDD7FA29A92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10965" yWindow="1200" windowWidth="16665" windowHeight="13995" activeTab="6" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
+    <workbookView xWindow="10965" yWindow="1200" windowWidth="16665" windowHeight="13995" activeTab="10" xr2:uid="{30976CD0-087A-4B7C-BA2F-9E2951B19CA4}"/>
   </bookViews>
   <sheets>
     <sheet name="0_" sheetId="6" r:id="rId1"/>
@@ -20,7 +20,10 @@
     <sheet name="4_" sheetId="1" r:id="rId5"/>
     <sheet name="5_" sheetId="3" r:id="rId6"/>
     <sheet name="6_" sheetId="4" r:id="rId7"/>
-    <sheet name="7_Matching" sheetId="5" r:id="rId8"/>
+    <sheet name="7_" sheetId="5" r:id="rId8"/>
+    <sheet name="8_" sheetId="10" r:id="rId9"/>
+    <sheet name="9_" sheetId="11" r:id="rId10"/>
+    <sheet name="10_" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="85">
   <si>
     <t>Correct</t>
   </si>
@@ -57,63 +60,24 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>Terms</t>
-  </si>
-  <si>
     <t>Correct order of definitions</t>
   </si>
   <si>
     <t>Definitions</t>
   </si>
   <si>
-    <t>State</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
-    <t>Metric answer</t>
-  </si>
-  <si>
-    <t>Library</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
-    <t>Library answer</t>
-  </si>
-  <si>
-    <t>Function</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>State answer</t>
-  </si>
-  <si>
     <t>Metric</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>Red herring 1</t>
-  </si>
-  <si>
-    <t>Function defintion</t>
-  </si>
-  <si>
-    <t>Red herring 2</t>
-  </si>
-  <si>
-    <t>Comment on State</t>
-  </si>
-  <si>
-    <t>Comment on "Function"</t>
-  </si>
-  <si>
     <t>Acceleration tells us the rate of change of velocity.  If a car accelerates at a constant rate of 10 m/s^2 and has an initial velocity of 5 m/s, what is its velocity after 3 seconds?</t>
   </si>
   <si>
@@ -253,6 +217,90 @@
   </si>
   <si>
     <t>Yep!  There is no acceleration once the penny reaches terminal velocity, so the velocity is constant.</t>
+  </si>
+  <si>
+    <t>Match the variable to its type.</t>
+  </si>
+  <si>
+    <t>Independent variable</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>State variable</t>
+  </si>
+  <si>
+    <t>Height of the platform</t>
+  </si>
+  <si>
+    <t>Mass of the jumper</t>
+  </si>
+  <si>
+    <t>Length of the rope</t>
+  </si>
+  <si>
+    <t>Velocity of the jumper</t>
+  </si>
+  <si>
+    <t>Position of the jumper</t>
+  </si>
+  <si>
+    <t>Lowest position of the jumper</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>This is what decides if it is a "good jump"</t>
+  </si>
+  <si>
+    <t>This is what we will alter in order to get different results</t>
+  </si>
+  <si>
+    <t>Force is a vector: that is, it always has a direction.  Imagine the jumper is falling down and the rope is a little bit stretched out.  What direction are each of these forces acting in?</t>
+  </si>
+  <si>
+    <t>Gravity</t>
+  </si>
+  <si>
+    <t>Spring force of the rope</t>
+  </si>
+  <si>
+    <t>Drag force</t>
+  </si>
+  <si>
+    <t>This force is acting in the upward direction</t>
+  </si>
+  <si>
+    <t>This force is acting in the downward direction</t>
+  </si>
+  <si>
+    <t>Now the jumper has reached the bottom of his fall, and is now springing back upward.  What direction are the forces now?</t>
+  </si>
+  <si>
+    <t>The rope is pulling the jumper upwards</t>
+  </si>
+  <si>
+    <t>Drag always acts in the direction opposite velocity</t>
+  </si>
+  <si>
+    <t>The jumper is not falling far enough: the low point is still about 4 m above the tea cup.  What changes to our independent variables would help change that?</t>
+  </si>
+  <si>
+    <t>We could shorten L and/or make k larger</t>
+  </si>
+  <si>
+    <t>We could shorten L and/or make k smaller</t>
+  </si>
+  <si>
+    <t>We could lengthen L and/or make k smaller</t>
+  </si>
+  <si>
+    <t>We could lengthen L and/or make k larger.</t>
+  </si>
+  <si>
+    <t>Lengthening L or making k smaller (less stiff) would allow the jumper to fall farther.</t>
   </si>
 </sst>
 </file>
@@ -627,52 +675,196 @@
   <sheetData>
     <row r="1" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65E939EB-82B2-496F-A8C6-791CE979036B}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B83577AA-5066-4736-8385-82E76BEE5548}">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -705,52 +897,52 @@
   <sheetData>
     <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -775,54 +967,54 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -855,29 +1047,29 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -903,7 +1095,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -914,24 +1106,24 @@
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -958,7 +1150,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -969,18 +1161,18 @@
     </row>
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
@@ -988,24 +1180,24 @@
     </row>
     <row r="4" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1017,8 +1209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA7D16AA-24F2-475C-807B-39CEEE6B996C}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1031,7 +1223,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1042,29 +1234,29 @@
     </row>
     <row r="2" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -1080,7 +1272,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D7"/>
+      <selection sqref="A1:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,76 +1286,158 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41DF5142-84E5-46B5-A410-14AE3D2B6A38}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
